--- a/public/files/Data_By_Towns_Index/Mercer/Robbinsville Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Mercer/Robbinsville Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.2293828</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.63521229999999</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.2201324</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.6291729</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>40.219191</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.624326</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>40.2307844</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.6022553</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>40.19839959999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.56461660000001</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>40.2482935</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.6093229</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.2352173</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.6419078</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>40.220482</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.63092589999999</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>40.233374</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.6432239</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>40.2438725</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.6754007</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.228146</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.62600499999999</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>40.2208822</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.6231918</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>40.2343786</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.63652039999999</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.2258291</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.62375369999999</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>40.2438725</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.6754007</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>40.2215788</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.63122970000001</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>40.2642061</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.58004079999999</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>40.2607991</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.5833815</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>40.2107028</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.58009130000001</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>40.221043</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.582487</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>40.2107028</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.58009130000001</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>40.2107028</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.58009130000001</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1176,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>40.2107028</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.58009130000001</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1207,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>40.2410557</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-74.60006229999999</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1238,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>40.2297258</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-74.636712</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1269,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>40.23616699999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-74.630944</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1300,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>40.2323893</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-74.6356629</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1331,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>40.2402588</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-74.58295889999999</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1362,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>40.2283786</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-74.62968359999999</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1393,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>40.2271584</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-74.6228761</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1424,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>40.2362853</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-74.6107097</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1455,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>40.2195106</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.6305775</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1486,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>40.2609164</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.5808186</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1517,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>40.2608677</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.58225349999999</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1548,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>40.2289451</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.59051509999999</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1579,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>40.2329138</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.60607760000001</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1610,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>40.217036</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.612278</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1641,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>40.2364651</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.6392226</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1672,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>40.2296993</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.6007376</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1454,9 +1703,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>40.230373</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-74.62828499999999</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1479,9 +1734,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>40.2268189</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.630026</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,9 +1765,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>40.21118999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.57455</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,9 +1796,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>40.2169363</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-74.6104768</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1554,9 +1827,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>40.2637163</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.57899340000002</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,9 +1858,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>40.2346376</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.641423</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1604,9 +1889,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>40.2190763</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.6277925</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1629,9 +1920,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>40.2185317</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.6244226</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1654,9 +1951,15 @@
           <t>Kadakia</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>40.2230597</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.6211393</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1679,9 +1982,15 @@
           <t>Kadakia</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>40.2334197</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.60715669999999</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1704,9 +2013,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>40.2415092</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.5614951</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1729,9 +2044,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>40.2001384</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.60267329999999</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,9 +2075,15 @@
           <t>Barot</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>40.2184968</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.6097374</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1779,9 +2106,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>40.22562</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-74.633527</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1804,9 +2137,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>40.237209</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.63370399999999</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1829,9 +2168,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>40.2322032</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.64185019999999</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1854,9 +2199,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>40.1961544</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-74.59934659999999</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1879,9 +2230,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>40.2332911</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.61372679999999</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1904,9 +2261,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>40.2313028</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.64053679999999</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1929,9 +2292,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>40.2226056</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.62850689999999</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1954,9 +2323,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>40.2052966</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.5907897</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1979,9 +2354,15 @@
           <t>Panchal</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>40.2332652</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-74.6078315</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2004,9 +2385,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>40.2169874</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.6114109</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2029,9 +2416,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>40.23518</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-74.628646</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2054,9 +2447,15 @@
           <t>Shroff</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>40.205972</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-74.5633316</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2079,9 +2478,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>40.21118999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-74.57455</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2104,9 +2509,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>40.2602725</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-74.58149039999999</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2129,9 +2540,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>40.230811</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-74.60003139999999</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2154,9 +2571,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>40.228822</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-74.63394</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2179,9 +2602,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>40.2367976</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-74.6314544</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2204,9 +2633,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>40.2180277</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-74.6124074</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2229,9 +2664,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>40.2273283</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-74.6232593</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2254,9 +2695,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>40.2213146</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-74.60195580000001</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2279,9 +2726,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>40.2328431</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-74.64277749999999</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2304,9 +2757,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>40.224711</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-74.5927686</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2329,9 +2788,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>40.237291</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-74.63090199999999</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2353,6 +2818,12 @@
         <is>
           <t>Parikh</t>
         </is>
+      </c>
+      <c r="F77" t="n">
+        <v>40.2591546</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-74.58003860000001</v>
       </c>
     </row>
   </sheetData>
